--- a/Datos1-Juego/QyA.xlsx
+++ b/Datos1-Juego/QyA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Documents\GitHub\Lab3-Est_Datos_1\Datos1-Juego\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7325037-9ABD-43C1-B9B7-DAF51226EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DDEB7D-7C43-4162-82E9-E0FCC89B7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C2E02C5-70E3-40EC-A00E-3C5EFC3FC835}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Num</t>
   </si>
@@ -59,24 +59,6 @@
     <t>Correcta</t>
   </si>
   <si>
-    <t>es a</t>
-  </si>
-  <si>
-    <t>es b</t>
-  </si>
-  <si>
-    <t>es c</t>
-  </si>
-  <si>
-    <t>es d</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -87,19 +69,103 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>¿Cuál es la definición correcta de una lista enlazada?</t>
+  </si>
+  <si>
+    <t>Una colección de elementos almacenados en ubicaciones consecutivas de memoria.</t>
+  </si>
+  <si>
+    <t>Una estructura de datos donde los elementos están organizados en forma de árbol.</t>
+  </si>
+  <si>
+    <t>Una secuencia de nodos, donde cada nodo contiene un valor y una referencia al siguiente nodo.</t>
+  </si>
+  <si>
+    <t>Un arreglo estático con tamaño fijo donde los elementos pueden insertarse y eliminarse.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes afirmaciones es verdadera sobre una lista enlazada doblemente enlazada?</t>
+  </si>
+  <si>
+    <t>Cada nodo solo tiene una referencia al siguiente nodo.</t>
+  </si>
+  <si>
+    <t>Cada nodo solo tiene una referencia al nodo anterior.</t>
+  </si>
+  <si>
+    <t>Cada nodo tiene referencias tanto al nodo anterior como al siguiente.</t>
+  </si>
+  <si>
+    <t>Cada nodo no tiene referencia a ningún otro nodo.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes afirmaciones es verdadera sobre una lista enlazada circular?</t>
+  </si>
+  <si>
+    <t>La última referencia de un nodo apunta al siguiente nodo en la lista.</t>
+  </si>
+  <si>
+    <t>La primera referencia de un nodo apunta al nodo anterior en la lista.</t>
+  </si>
+  <si>
+    <t>La última referencia de un nodo apunta al primer nodo en la lista.</t>
+  </si>
+  <si>
+    <t>La primera referencia de un nodo apunta al siguiente nodo en la lista.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes operaciones en una lista enlazada requiere recorrerla desde el principio hasta el final?</t>
+  </si>
+  <si>
+    <t>Eliminar el último elemento de la lista.</t>
+  </si>
+  <si>
+    <t>Insertar al final de la lista.</t>
+  </si>
+  <si>
+    <t>Insertar al principio de la lista.</t>
+  </si>
+  <si>
+    <t>Acceder al elemento en la posición media de la lista.</t>
+  </si>
+  <si>
+    <t>¿Cuál es la principal ventaja de una lista enlazada sobre un arreglo estático?</t>
+  </si>
+  <si>
+    <t>Acceso directo a cualquier posición de la lista.</t>
+  </si>
+  <si>
+    <t>Mayor eficiencia en la inserción y eliminación de elementos.</t>
+  </si>
+  <si>
+    <t>Menor consumo de memoria.</t>
+  </si>
+  <si>
+    <t>Mayor eficiencia en la búsqueda de elementos.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes afirmaciones es verdadera sobre una lista enlazada circular doblemente enlazada?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C29F4F-F6E9-47B9-8267-64143B200BED}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,22 +541,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -497,94 +564,118 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>